--- a/tabular/genus/unc-denso-refseqs-side-data.xlsx
+++ b/tabular/genus/unc-denso-refseqs-side-data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A1E7D-7732-4845-AA98-FC484E003D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72598F72-3AAF-6048-A6DC-2B97D0BFAF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{AB1CE697-9EAB-8440-9FB9-1DF90C0D9C56}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,151 +34,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
-  <si>
-    <t>VP[unclassified.XX-Tetraodon(-)]-VP[unclassified.XX-Tetraodon(-)]</t>
-  </si>
-  <si>
-    <t>translation</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Un_random</t>
-  </si>
-  <si>
-    <t>Tetraodon_nigroviridis.TETRAODON8.dna.nonchromosomal.fa</t>
-  </si>
-  <si>
-    <t>TETRAODON8</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>Tetraodon_nigroviridis</t>
-  </si>
-  <si>
-    <t>Tetraodon</t>
-  </si>
-  <si>
-    <t>Tetraodontidae</t>
-  </si>
-  <si>
-    <t>Tetraodontiformes</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
-  </si>
-  <si>
-    <t>Actinopteri</t>
-  </si>
-  <si>
-    <t>dependo.Tetraodon_nigroviridis</t>
-  </si>
-  <si>
-    <t>Record_ID</t>
-  </si>
-  <si>
-    <t>locus_name</t>
-  </si>
-  <si>
-    <t>locus_numeric_id</t>
-  </si>
-  <si>
-    <t>stem</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>host_species</t>
   </si>
   <si>
-    <t>host_class</t>
-  </si>
-  <si>
-    <t>host_superorder</t>
-  </si>
-  <si>
-    <t>host_order</t>
-  </si>
-  <si>
-    <t>host_family</t>
-  </si>
-  <si>
-    <t>host_genus</t>
-  </si>
-  <si>
-    <t>organism</t>
-  </si>
-  <si>
-    <t>target_datatype</t>
-  </si>
-  <si>
-    <t>target_version</t>
-  </si>
-  <si>
-    <t>target_name</t>
-  </si>
-  <si>
-    <t>scaffold</t>
-  </si>
-  <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t>extract_start</t>
-  </si>
-  <si>
-    <t>extract_end</t>
-  </si>
-  <si>
-    <t>assigned_gene</t>
-  </si>
-  <si>
-    <t>subject_start</t>
-  </si>
-  <si>
-    <t>subject_end</t>
-  </si>
-  <si>
-    <t>query_start</t>
-  </si>
-  <si>
-    <t>query_end</t>
-  </si>
-  <si>
-    <t>align_len</t>
-  </si>
-  <si>
-    <t>bitscore</t>
-  </si>
-  <si>
-    <t>identity</t>
-  </si>
-  <si>
-    <t>evalue_num</t>
-  </si>
-  <si>
-    <t>evalue_exp</t>
-  </si>
-  <si>
-    <t>gap_openings</t>
-  </si>
-  <si>
-    <t>mismatches</t>
-  </si>
-  <si>
-    <t>locus_structure</t>
-  </si>
-  <si>
-    <t>sequence_length</t>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>virus_name</t>
+  </si>
+  <si>
+    <t>virus_full_name</t>
+  </si>
+  <si>
+    <t>virus_other_name</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>virus_genus</t>
+  </si>
+  <si>
+    <t>assign_clade</t>
+  </si>
+  <si>
+    <t>assign_subclade</t>
+  </si>
+  <si>
+    <t>virus_clade_ns</t>
+  </si>
+  <si>
+    <t>virus_subclade_ns</t>
+  </si>
+  <si>
+    <t>virus_clade_vp</t>
+  </si>
+  <si>
+    <t>virus_subclade_vp</t>
+  </si>
+  <si>
+    <t>lab_construct</t>
+  </si>
+  <si>
+    <t>NC_001539</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>Carnivore protoparvovirus 1</t>
+  </si>
+  <si>
+    <t>canine parvovirus</t>
+  </si>
+  <si>
+    <t>Canis familiaris</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>Protoparvovirus</t>
+  </si>
+  <si>
+    <t>NK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,13 +117,20 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,7 +139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,18 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,211 +482,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E402CC6C-68A2-4441-AB62-FA7482E95718}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F24C0C1-40E8-FE44-BF4D-E4852D1BF9B4}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>165</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>94956103</v>
-      </c>
-      <c r="S2">
-        <v>94959906</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>760</v>
-      </c>
-      <c r="V2">
-        <v>1250</v>
-      </c>
-      <c r="W2">
-        <v>2332</v>
-      </c>
-      <c r="X2">
-        <v>3804</v>
-      </c>
-      <c r="Y2">
-        <v>491</v>
-      </c>
-      <c r="Z2">
-        <v>972</v>
-      </c>
-      <c r="AA2">
-        <v>100</v>
-      </c>
-      <c r="AB2">
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="b">
         <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>3804</v>
       </c>
     </row>
   </sheetData>
